--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2168826.298720914</v>
+        <v>-2171545.699865161</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>38.18040298600059</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>377.1191226731927</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>90.92637375269216</v>
+        <v>17.42775815369509</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>143.695003253928</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>185.6930507761479</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>88.8360250925666</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>103.666505272367</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>17.96197044243801</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1184,7 +1184,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>193.3921981866892</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>175.7221540029779</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>68.41623579399487</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>59.67415913389035</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1686991936188</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520957</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>58.24570521548596</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>134.5665975534139</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>271.1598222873246</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>191.9440058362636</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>98.00068573248046</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.72106119200303</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002296</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3554,10 +3554,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3955,16 +3955,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>867.5113594131251</v>
+        <v>1936.747355174407</v>
       </c>
       <c r="C2" t="n">
-        <v>498.5488424727134</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D2" t="n">
-        <v>498.5488424727134</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>498.5488424727134</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>498.5488424727134</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1254.111199477247</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938516</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.0047021228125</v>
+        <v>682.7064461033928</v>
       </c>
       <c r="C4" t="n">
-        <v>291.0047021228125</v>
+        <v>513.7702631754859</v>
       </c>
       <c r="D4" t="n">
-        <v>291.0047021228125</v>
+        <v>363.6536237631501</v>
       </c>
       <c r="E4" t="n">
-        <v>143.0916085404194</v>
+        <v>215.740530180757</v>
       </c>
       <c r="F4" t="n">
-        <v>143.0916085404194</v>
+        <v>68.85058268284664</v>
       </c>
       <c r="G4" t="n">
-        <v>143.0916085404194</v>
+        <v>68.85058268284664</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880302</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510696</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>472.6531669530523</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>472.6531669530523</v>
+        <v>864.3549109336325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1042.715325395395</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="C5" t="n">
-        <v>673.7528084549829</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="D5" t="n">
-        <v>673.7528084549829</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E5" t="n">
-        <v>673.7528084549829</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7669036653753</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4565,22 +4565,22 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764997</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656474</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1042.715325395395</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1042.715325395395</v>
+        <v>1312.658779419395</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938516</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>309.9163281752702</v>
+        <v>324.8966111851696</v>
       </c>
       <c r="C7" t="n">
-        <v>140.9801452473633</v>
+        <v>155.9604282572627</v>
       </c>
       <c r="D7" t="n">
-        <v>140.9801452473633</v>
+        <v>155.9604282572627</v>
       </c>
       <c r="E7" t="n">
-        <v>140.9801452473633</v>
+        <v>155.9604282572627</v>
       </c>
       <c r="F7" t="n">
-        <v>140.9801452473633</v>
+        <v>155.9604282572627</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>155.9604282572627</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>155.9604282572627</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253778</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W7" t="n">
-        <v>758.6984582168177</v>
+        <v>955.3272060569568</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7089073188004</v>
+        <v>727.3376551589395</v>
       </c>
       <c r="Y7" t="n">
-        <v>309.9163281752702</v>
+        <v>506.5450760154093</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1228.647807131574</v>
+        <v>825.108488495616</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>825.108488495616</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>466.8427898888655</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>81.05453729062128</v>
       </c>
       <c r="F8" t="n">
         <v>62.91113280331017</v>
@@ -4808,10 +4808,10 @@
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>1988.713405456775</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X8" t="n">
-        <v>1615.247647195695</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1615.247647195695</v>
+        <v>1211.708328559738</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>551.6025748766949</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081667</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>587.320011373462</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C10" t="n">
-        <v>418.3838284455551</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D10" t="n">
-        <v>268.2671890332193</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E10" t="n">
-        <v>120.3540954508262</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F10" t="n">
-        <v>120.3540954508262</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>120.3540954508262</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>120.3540954508262</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384193</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W10" t="n">
-        <v>989.7610553472318</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X10" t="n">
-        <v>989.7610553472318</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.9684762037017</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400708</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121639</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121639</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703105</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="14">
@@ -5276,13 +5276,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5626541092274</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249859</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578603</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3475.706650960524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.308687575531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1703.562270119271</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.877781913384</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1159.460611876424</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>931.4710609784063</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>931.4710609784063</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>869.6905094135296</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.131553387299</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.338974243769</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>506.2737913123336</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>634.9279362553159</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2098.071953838597</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1808.996727182795</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1554.312238976908</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1264.895068939947</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1036.90551804193</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.5764010855556</v>
+        <v>816.1129388984</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,31 +6877,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,58 +7306,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797162</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179983</v>
+        <v>168.7434581780642</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460949</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>294.8344935184726</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>45.7648823102457</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>255.8421700460946</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.550534989991394e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>344.55343867748</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>322.0406428058713</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.42858009976129</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>288.4308682682716</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>56.32513540243671</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.945315721635453e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>120.1578210480469</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>43.26526345295035</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>87.17534280744528</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>30.95754073885493</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>15.02465210191951</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>33.76564955277357</v>
+        <v>180.5487903941886</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>119.4047645948078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1358069.994130883</v>
+        <v>1358069.994130884</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48691.36674215494</v>
+        <v>48691.36674215493</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675047</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>60535.99497675048</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
         <v>60535.99497675045</v>
       </c>
       <c r="H2" t="n">
-        <v>60535.99497675043</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>60535.99497675046</v>
+        <v>60535.99497675047</v>
       </c>
       <c r="J2" t="n">
+        <v>61578.13273982119</v>
+      </c>
+      <c r="K2" t="n">
         <v>61578.1327398212</v>
       </c>
-      <c r="K2" t="n">
-        <v>61578.13273982124</v>
-      </c>
       <c r="L2" t="n">
-        <v>61578.13273982123</v>
+        <v>61578.13273982126</v>
       </c>
       <c r="M2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33838.50360469849</v>
+        <v>33838.50360469842</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26430,34 +26430,34 @@
         <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670738</v>
+        <v>6897.424496707385</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707348</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707384</v>
       </c>
       <c r="J4" t="n">
+        <v>14888.28375980082</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14888.28375980084</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14888.28375980082</v>
+      </c>
+      <c r="M4" t="n">
         <v>14888.28375980083</v>
       </c>
-      <c r="K4" t="n">
-        <v>14888.28375980081</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14888.28375980085</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14888.28375980085</v>
-      </c>
       <c r="N4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980082</v>
       </c>
       <c r="O4" t="n">
+        <v>14888.28375980086</v>
+      </c>
+      <c r="P4" t="n">
         <v>14888.28375980083</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14888.28375980082</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1192836.692878308</v>
+        <v>-1193266.251744897</v>
       </c>
       <c r="C6" t="n">
         <v>-163269.3665316484</v>
@@ -26528,40 +26528,40 @@
         <v>-163269.3665316484</v>
       </c>
       <c r="E6" t="n">
-        <v>-554969.40096841</v>
+        <v>-555004.1388938455</v>
       </c>
       <c r="F6" t="n">
-        <v>-47483.95934386398</v>
+        <v>-47518.69726929972</v>
       </c>
       <c r="G6" t="n">
-        <v>-47483.95934386404</v>
+        <v>-47518.69726929974</v>
       </c>
       <c r="H6" t="n">
-        <v>-47483.95934386403</v>
+        <v>-47518.69726929969</v>
       </c>
       <c r="I6" t="n">
-        <v>-47483.95934386401</v>
+        <v>-47518.69726929972</v>
       </c>
       <c r="J6" t="n">
-        <v>-243507.1626775093</v>
+        <v>-243507.1626775094</v>
       </c>
       <c r="K6" t="n">
-        <v>-56474.26687389497</v>
+        <v>-56474.26687389504</v>
       </c>
       <c r="L6" t="n">
-        <v>-56474.26687389502</v>
+        <v>-56474.26687389496</v>
       </c>
       <c r="M6" t="n">
         <v>-189081.5606028217</v>
       </c>
       <c r="N6" t="n">
-        <v>-56474.266873895</v>
+        <v>-56474.26687389497</v>
       </c>
       <c r="O6" t="n">
-        <v>-75901.98486752673</v>
+        <v>-75901.98486752683</v>
       </c>
       <c r="P6" t="n">
-        <v>-56474.26687389499</v>
+        <v>-56474.26687389497</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
-      <c r="K2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>32.64239881481166</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.32139020186327</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>129.8237510014337</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>267.852699519026</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>200.5448878799056</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>77.47057495223758</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>1.130089931533576</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>388.9140752992734</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>155.8487705307238</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4.109826178959423</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>36.38035940990571</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28068,10 +28068,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.288636322337378e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093093</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,7 +32315,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>658.2124561388958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>595.3857163736981</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>351.5042614518788</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>301.6445156724565</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,10 +33734,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>314.5984986256103</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>535.6747904601048</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>591.2668520422178</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>592.5148541563228</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>381.1895643063687</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>442.4296662895794</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35270,10 +35270,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.18116013495035</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35963,7 +35963,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>526.8707440555626</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>453.2516824516798</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>208.9080170074344</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>159.048271228012</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
